--- a/misc/cleaning_tools/meta_data.xlsx
+++ b/misc/cleaning_tools/meta_data.xlsx
@@ -5,58 +5,58 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gavin\Documents\GitHub\cleaningTemplate\misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gavin\Documents\R\chokmah\misc\cleaning_tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36821B90-9D88-45BA-A2BD-A75010E2C3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F2EF99-191C-4B7C-A05E-2A57D3BEB5E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2908B5E4-E3B2-47CA-B8BD-41C0855AB258}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>varname</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>var_name</t>
   </si>
   <si>
     <t>var_label</t>
   </si>
   <si>
+    <t>brief_desc</t>
+  </si>
+  <si>
     <t>var_type</t>
+  </si>
+  <si>
+    <t>interval_type</t>
+  </si>
+  <si>
+    <t>possible_invalid_codes</t>
+  </si>
+  <si>
+    <t>invalid_codes</t>
+  </si>
+  <si>
+    <t>new_page</t>
+  </si>
+  <si>
+    <t>table_break</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -397,21 +397,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0358F5F4-F63F-4610-B47C-20E72C7FCC1D}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,9 +423,26 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>